--- a/signupinfo.xlsx
+++ b/signupinfo.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\AutoSignBot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63EA4AD-E256-4527-92E7-8AE74DFB2CA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Postcode</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>John Buckley</t>
-  </si>
-  <si>
-    <t>19/04/1962</t>
-  </si>
-  <si>
-    <t>PH10 6TY</t>
-  </si>
-  <si>
-    <t>1 Elm Drive, Blairgowrie, PH10 6TY</t>
-  </si>
-  <si>
-    <t>Colin Smith</t>
-  </si>
-  <si>
-    <t>ML8 5NJ</t>
-  </si>
-  <si>
-    <t>Birch Lodge, CARLUKE, ML8 5NJ</t>
-  </si>
-  <si>
-    <t>Diane McClintock</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>11A Market Street, Stranraer</t>
-  </si>
-  <si>
-    <t>Caroline Elsie Wright Kelly aka Brown</t>
-  </si>
-  <si>
-    <t>EH51 9HP</t>
-  </si>
-  <si>
-    <t>32 Birkhill Crescent, BO'NESS, West Lothian, EH51 9HP</t>
-  </si>
-  <si>
-    <t>Susan aka Josie Joyce Adamson</t>
-  </si>
-  <si>
-    <t>24/09/1973</t>
-  </si>
-  <si>
-    <t>IV30 6UG</t>
-  </si>
-  <si>
-    <t>4 Hardhillock Avenue, New Elgin, ELGIN, Morayshire, IV30 6UG</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -130,22 +46,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,105 +386,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D90808-9A2F-47C0-8432-8FB7C0306EE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
+    <col width="34.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="57.140625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>John Buckley</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PH10 6TY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1 Elm Drive, Blairgowrie, PH10 6TY</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Colin Smith</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ML8 5NJ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Birch Lodge, CARLUKE, ML8 5NJ</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Diane McClintock</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>27552</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11A Market Street, Stranraer</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
-        <v>27552</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Caroline Elsie Wright Kelly aka Brown</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>26451</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EH51 9HP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32 Birkhill Crescent, BO'NESS, West Lothian, EH51 9HP</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1">
-        <v>26451</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Susan aka Josie Joyce Adamson</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24/09/1973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>IV30 6UG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4 Hardhillock Avenue, New Elgin, ELGIN, Morayshire, IV30 6UG</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/signupinfo.xlsx
+++ b/signupinfo.xlsx
@@ -1,33 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\AutoSignBot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471D86EB-7773-45C3-A20A-829F9C18BD30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>John Buckley</t>
+  </si>
+  <si>
+    <t>PH10 6TY</t>
+  </si>
+  <si>
+    <t>1 Elm Drive, Blairgowrie, PH10 6TY</t>
+  </si>
+  <si>
+    <t>Colin Smith</t>
+  </si>
+  <si>
+    <t>ML8 5NJ</t>
+  </si>
+  <si>
+    <t>Birch Lodge, CARLUKE, ML8 5NJ</t>
+  </si>
+  <si>
+    <t>Diane McClintock</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
+  </si>
+  <si>
+    <t>11A Market Street, Stranraer</t>
+  </si>
+  <si>
+    <t>Caroline Elsie Wright Kelly aka Brown</t>
+  </si>
+  <si>
+    <t>EH51 9HP</t>
+  </si>
+  <si>
+    <t>32 Birkhill Crescent, BO'NESS, West Lothian, EH51 9HP</t>
+  </si>
+  <si>
+    <t>Susan aka Josie Joyce Adamson</t>
+  </si>
+  <si>
+    <t>24/09/1973</t>
+  </si>
+  <si>
+    <t>IV30 6UG</t>
+  </si>
+  <si>
+    <t>4 Hardhillock Avenue, New Elgin, ELGIN, Morayshire, IV30 6UG</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +122,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -386,153 +403,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="34.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="57.140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>DOB</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>John Buckley</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PH10 6TY</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1 Elm Drive, Blairgowrie, PH10 6TY</t>
-        </is>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Colin Smith</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ML8 5NJ</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Birch Lodge, CARLUKE, ML8 5NJ</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Diane McClintock</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
         <v>27552</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Stranraer</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11A Market Street, Stranraer</t>
-        </is>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Caroline Elsie Wright Kelly aka Brown</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
         <v>26451</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EH51 9HP</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32 Birkhill Crescent, BO'NESS, West Lothian, EH51 9HP</t>
-        </is>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Susan aka Josie Joyce Adamson</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>24/09/1973</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>IV30 6UG</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4 Hardhillock Avenue, New Elgin, ELGIN, Morayshire, IV30 6UG</t>
-        </is>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/signupinfo.xlsx
+++ b/signupinfo.xlsx
@@ -1,159 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\AutoSignBot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D49D3-4796-4AE5-87B9-343AC6E1E8A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Postcode</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>John Buckley</t>
-  </si>
-  <si>
-    <t>19/04/1962</t>
-  </si>
-  <si>
-    <t>PH10 6TY</t>
-  </si>
-  <si>
-    <t>1 Elm Drive, Blairgowrie, PH10 6TY</t>
-  </si>
-  <si>
-    <t>Colin Smith</t>
-  </si>
-  <si>
-    <t>ML8 5NJ</t>
-  </si>
-  <si>
-    <t>Birch Lodge, CARLUKE, ML8 5NJ</t>
-  </si>
-  <si>
-    <t>Diane McClintock</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>11A Market Street, Stranraer</t>
-  </si>
-  <si>
-    <t>Caroline Elsie Wright Kelly aka Brown</t>
-  </si>
-  <si>
-    <t>EH51 9HP</t>
-  </si>
-  <si>
-    <t>32 Birkhill Crescent, BO'NESS, West Lothian, EH51 9HP</t>
-  </si>
-  <si>
-    <t>Susan aka Josie Joyce Adamson</t>
-  </si>
-  <si>
-    <t>24/09/1973</t>
-  </si>
-  <si>
-    <t>IV30 6UG</t>
-  </si>
-  <si>
-    <t>4 Hardhillock Avenue, New Elgin, ELGIN, Morayshire, IV30 6UG</t>
-  </si>
-  <si>
-    <t>Nicola Bain</t>
-  </si>
-  <si>
-    <t>22/01/1976</t>
-  </si>
-  <si>
-    <t>PA7 5JZ</t>
-  </si>
-  <si>
-    <t>4 West Porton Place, BISHOPTON, Renfrewshire, PA7 5JZ</t>
-  </si>
-  <si>
-    <t>Kevin McConnachie</t>
-  </si>
-  <si>
-    <t>29/08/1974</t>
-  </si>
-  <si>
-    <t>West Porton Place 4 Greenock Road, Bishopton, Renfrewshire, PA7 5JZ</t>
-  </si>
-  <si>
-    <t>Jacqueline Cumming</t>
-  </si>
-  <si>
-    <t>FK8 3NE</t>
-  </si>
-  <si>
-    <t>Garniehill Station Road, STIRLING, FK8 3NE</t>
-  </si>
-  <si>
-    <t>May Williams</t>
-  </si>
-  <si>
-    <t>25/05/1969</t>
-  </si>
-  <si>
-    <t>AB33 8PB</t>
-  </si>
-  <si>
-    <t>Martin Cottage, ALFORD, Aberdeenshire, AB33 8PB</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -172,22 +46,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -453,160 +386,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187E1A83-E3FC-4A83-A65A-A6955B72166D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col width="34.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="64.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="4.85546875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="6.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>John Buckley</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PH10 6TY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1 Elm Drive, Blairgowrie, PH10 6TY</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Colin Smith</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ML8 5NJ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Birch Lodge, CARLUKE, ML8 5NJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Diane McClintock</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>27552</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11A Market Street, Stranraer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Caroline Elsie Wright Kelly aka Brown</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>26451</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EH51 9HP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32 Birkhill Crescent, BO'NESS, West Lothian, EH51 9HP</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Susan aka Josie Joyce Adamson</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24/09/1973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>IV30 6UG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4 Hardhillock Avenue, New Elgin, ELGIN, Morayshire, IV30 6UG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nicola Bain</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>22/01/1976</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PA7 5JZ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4 West Porton Place, BISHOPTON, Renfrewshire, PA7 5JZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kevin McConnachie</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PA7 5JZ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>West Porton Place 4 Greenock Road, Bishopton, Renfrewshire, PA7 5JZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Jacqueline Cumming</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FK8 3NE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Garniehill Station Road, STIRLING, FK8 3NE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>May Williams</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25/05/1969</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AB33 8PB</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Martin Cottage, ALFORD, Aberdeenshire, AB33 8PB</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/signupinfo.xlsx
+++ b/signupinfo.xlsx
@@ -1,154 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\AutoSignBot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD906AC-ABD0-4244-9DFC-71E6D8A4509B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>Postcode</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>John Buckley</t>
-  </si>
-  <si>
-    <t>PH10 6TY</t>
-  </si>
-  <si>
-    <t>1 Elm Drive, Blairgowrie, PH10 6TY</t>
-  </si>
-  <si>
-    <t>Colin Smith</t>
-  </si>
-  <si>
-    <t>ML8 5NJ</t>
-  </si>
-  <si>
-    <t>Birch Lodge, CARLUKE, ML8 5NJ</t>
-  </si>
-  <si>
-    <t>Diane McClintock</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>11A Market Street, Stranraer</t>
-  </si>
-  <si>
-    <t>Caroline Elsie Wright Kelly aka Brown</t>
-  </si>
-  <si>
-    <t>EH51 9HP</t>
-  </si>
-  <si>
-    <t>32 Birkhill Crescent, BO'NESS, West Lothian, EH51 9HP</t>
-  </si>
-  <si>
-    <t>Susan aka Josie Joyce Adamson</t>
-  </si>
-  <si>
-    <t>24/09/1973</t>
-  </si>
-  <si>
-    <t>IV30 6UG</t>
-  </si>
-  <si>
-    <t>4 Hardhillock Avenue, New Elgin, ELGIN, Morayshire, IV30 6UG</t>
-  </si>
-  <si>
-    <t>Nicola Bain</t>
-  </si>
-  <si>
-    <t>22/01/1976</t>
-  </si>
-  <si>
-    <t>PA7 5JZ</t>
-  </si>
-  <si>
-    <t>4 West Porton Place, BISHOPTON, Renfrewshire, PA7 5JZ</t>
-  </si>
-  <si>
-    <t>Kevin McConnachie</t>
-  </si>
-  <si>
-    <t>West Porton Place 4 Greenock Road, Bishopton, Renfrewshire, PA7 5JZ</t>
-  </si>
-  <si>
-    <t>Jacqueline Cumming</t>
-  </si>
-  <si>
-    <t>FK8 3NE</t>
-  </si>
-  <si>
-    <t>Garniehill Station Road, STIRLING, FK8 3NE</t>
-  </si>
-  <si>
-    <t>May Williams</t>
-  </si>
-  <si>
-    <t>25/05/1969</t>
-  </si>
-  <si>
-    <t>AB33 8PB</t>
-  </si>
-  <si>
-    <t>Martin Cottage, ALFORD, Aberdeenshire, AB33 8PB</t>
-  </si>
-  <si>
-    <t>19/04/1962</t>
-  </si>
-  <si>
-    <t>29/08/1974</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -167,22 +46,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,160 +386,295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col width="34.7109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="64.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="4.85546875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="6.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>John Buckley</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>19/04/1962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PH10 6TY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1 Elm Drive, Blairgowrie, PH10 6TY</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>+075 61277460</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Colin Smith</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>21/5/1984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ML8 5NJ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Birch Lodge, CARLUKE, ML8 5NJ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+075 22735912</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Diane McClintock</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>27552</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Stranraer</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11A Market Street, Stranraer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+075 59984669</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Caroline Elsie Wright Kelly aka Brown</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>26451</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EH51 9HP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32 Birkhill Crescent, BO'NESS, West Lothian, EH51 9HP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+07464170696</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Susan aka Josie Joyce Adamson</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24/09/1973</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>IV30 6UG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4 Hardhillock Avenue, New Elgin, ELGIN, Morayshire, IV30 6UG</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+075 58440463</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nicola Bain</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>22/01/1976</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PA7 5JZ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4 West Porton Place, BISHOPTON, Renfrewshire, PA7 5JZ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>+07488170024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Kevin McConnachie</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>29/08/1974</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PA7 5JZ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>West Porton Place 4 Greenock Road, Bishopton, Renfrewshire, PA7 5JZ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>+075 28853080</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Jacqueline Cumming</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12/7/1961</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FK8 3NE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Garniehill Station Road, STIRLING, FK8 3NE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>+075 66756455</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>May Williams</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25/05/1969</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AB33 8PB</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Martin Cottage, ALFORD, Aberdeenshire, AB33 8PB</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>+075 96654765</t>
+        </is>
       </c>
     </row>
   </sheetData>
